--- a/medicine/Médecine vétérinaire/Oncologie_vétérinaire/Oncologie_vétérinaire.xlsx
+++ b/medicine/Médecine vétérinaire/Oncologie_vétérinaire/Oncologie_vétérinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oncologie_v%C3%A9t%C3%A9rinaire</t>
+          <t>Oncologie_vétérinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oncologie vétérinaire est une spécialité de la médecine vétérinaire qui traite du diagnostic et du traitement du cancer chez les animaux. Le cancer est une cause majeure de mortalité chez les animaux de compagnie. Dans une étude, 45 % des chiens ayant atteint l'âge de 10 ans ou plus sont morts d'un cancer[1].
-Les tumeurs cutanées sont le type de tumeur le plus fréquemment diagnostiqué chez les animaux domestiques pour deux raisons : 1. exposition constante de la peau de l'animal au soleil et à l'environnement extérieur, 2. les tumeurs cutanées sont faciles à voir car elles se trouvent à l'extérieur de l'animal[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oncologie vétérinaire est une spécialité de la médecine vétérinaire qui traite du diagnostic et du traitement du cancer chez les animaux. Le cancer est une cause majeure de mortalité chez les animaux de compagnie. Dans une étude, 45 % des chiens ayant atteint l'âge de 10 ans ou plus sont morts d'un cancer.
+Les tumeurs cutanées sont le type de tumeur le plus fréquemment diagnostiqué chez les animaux domestiques pour deux raisons : 1. exposition constante de la peau de l'animal au soleil et à l'environnement extérieur, 2. les tumeurs cutanées sont faciles à voir car elles se trouvent à l'extérieur de l'animal.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oncologie_v%C3%A9t%C3%A9rinaire</t>
+          <t>Oncologie_vétérinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chiens mâles
-[3],[4]
-Chiennes
-[3],[4]
-Ces statistiques, datant des années 1960, peuvent ne pas être une représentation précise du cancer chez les chiens actuellement.
+          <t>Chiens mâles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">,
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oncologie_v%C3%A9t%C3%A9rinaire</t>
+          <t>Oncologie_vétérinaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liens entre le cancer humain et animal</t>
+          <t>Statistiques sur le cancer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les animaux de compagnie tels que les chiens et les chats souffrent de plusieurs des mêmes types de cancer que les humains. La recherche sur le cancer avec des chiens a contribué à la conception d'essais cliniques pour le traitement du cancer chez l'homme. Dans l'esprit du mouvement One Health (recherche collaborative mondiale sur la santé humaine et animale), de telles connexions homme-animal dans la recherche sur le cancer pourraient bénéficier à la fois aux humains et aux animaux atteints de cancer à l'avenir[1],[5].
-Les animaux atteints de cancer fonctionnent aussi parfois comme des sentinelles animales qui fournissent une alerte précoce des agents cancérigènes et un danger pour la santé environnementale pour les humains[6],[7].
+          <t>Chiennes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">,
+Ces statistiques, datant des années 1960, peuvent ne pas être une représentation précise du cancer chez les chiens actuellement.
 </t>
         </is>
       </c>
@@ -561,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oncologie_v%C3%A9t%C3%A9rinaire</t>
+          <t>Oncologie_vétérinaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +596,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liens entre le cancer humain et animal</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les animaux de compagnie tels que les chiens et les chats souffrent de plusieurs des mêmes types de cancer que les humains. La recherche sur le cancer avec des chiens a contribué à la conception d'essais cliniques pour le traitement du cancer chez l'homme. Dans l'esprit du mouvement One Health (recherche collaborative mondiale sur la santé humaine et animale), de telles connexions homme-animal dans la recherche sur le cancer pourraient bénéficier à la fois aux humains et aux animaux atteints de cancer à l'avenir,.
+Les animaux atteints de cancer fonctionnent aussi parfois comme des sentinelles animales qui fournissent une alerte précoce des agents cancérigènes et un danger pour la santé environnementale pour les humains,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oncologie_vétérinaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie_v%C3%A9t%C3%A9rinaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Questions éthiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vétérinaires utilisent l'échelle HHHHHMM pour discuter de la qualité de vie des animaux avec les propriétaires d'animaux avant qu'une décision d'euthanasie ne soit prise pour un animal atteint d'une maladie incurable comme le cancer (les lettres signifient Hurt Hunger Hydration Hygiene Happiness Mobility et "More good days than bad days" )[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vétérinaires utilisent l'échelle HHHHHMM pour discuter de la qualité de vie des animaux avec les propriétaires d'animaux avant qu'une décision d'euthanasie ne soit prise pour un animal atteint d'une maladie incurable comme le cancer (les lettres signifient Hurt Hunger Hydration Hygiene Happiness Mobility et "More good days than bad days" ),.
 </t>
         </is>
       </c>
